--- a/Ikea-link.xlsx
+++ b/Ikea-link.xlsx
@@ -21,50 +21,50 @@
     <t>storage-organisation</t>
   </si>
   <si>
-    <t>https://www.ikea.cn/cn/en/cat/bookcases-shelving-units-st002/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/storage-solution-systems-46052/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cabinets-cupboards-st003/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/tv-media-furniture-10475/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/chests-of-drawers-drawer-units-st004/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/wardrobes-19053/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/small-storage-organisers-st007/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/hooks-wall-organisation-st006/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/clothes-stands-shoe-racks-st005/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/trolleys-fu005/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bags-16248/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/moving-supplies-46078/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/wall-shelves-10398/</t>
+    <t>https://www.ikea.cn/cn/en/cat/bookcases-shelving-units-st002</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/storage-solution-systems-46052</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/cabinets-cupboards-st003</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/tv-media-furniture-10475</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/chests-of-drawers-drawer-units-st004</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/wardrobes-19053</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/small-storage-organisers-st007</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/hooks-wall-organisation-st006</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/clothes-stands-shoe-racks-st005</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/trolleys-fu005</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/bags-16248</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/moving-supplies-46078</t>
+  </si>
+  <si>
+    <t>https://www.ikea.cn/cn/en/cat/wall-shelves-10398</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -75,6 +75,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,11 +95,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -324,7 +331,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -332,7 +339,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -340,7 +347,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -348,7 +355,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -356,7 +363,7 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -364,7 +371,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -372,7 +379,7 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -380,7 +387,7 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -388,7 +395,7 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -396,7 +403,7 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -404,7 +411,7 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -412,22 +419,37 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink r:id="rId2" ref="B2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId5" ref="B5"/>
+    <hyperlink r:id="rId6" ref="B6"/>
+    <hyperlink r:id="rId7" ref="B7"/>
+    <hyperlink r:id="rId8" ref="B8"/>
+    <hyperlink r:id="rId9" ref="B9"/>
+    <hyperlink r:id="rId10" ref="B10"/>
+    <hyperlink r:id="rId11" ref="B11"/>
+    <hyperlink r:id="rId12" ref="B12"/>
+    <hyperlink r:id="rId13" ref="B13"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Ikea-link.xlsx
+++ b/Ikea-link.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjnTgbXbBFHexdElAOZeNMg70wUGA=="/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>storage-organisation</t>
   </si>
@@ -159,9 +157,6 @@
     <t>https://www.ikea.cn/cn/en/cat/storage-boxes-baskets-10550/</t>
   </si>
   <si>
-    <t>https://www.ikea.cn/cn/en/cat/flower-pots-planters-pp004/</t>
-  </si>
-  <si>
     <t>https://www.ikea.cn/cn/en/cat/mirrors-20489/</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
   </si>
   <si>
     <t>https://www.ikea.cn/cn/en/cat/decorative-accessories-24924/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/paper-shop-25227/</t>
   </si>
   <si>
     <t>https://www.ikea.cn/cn/en/cat/clocks-10759/</t>
@@ -216,26 +208,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,53 +236,85 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -316,22 +341,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,154 +428,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="54.11"/>
-    <col customWidth="1" min="2" max="2" width="61.33"/>
-    <col customWidth="1" min="3" max="26" width="10.56"/>
+    <col min="1" max="1" style="4" width="54.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="61.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -602,7 +716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -610,7 +724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -618,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -626,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -634,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -642,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -650,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -658,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -666,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -674,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -682,7 +796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -690,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
@@ -698,7 +812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -706,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -714,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -722,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -730,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -738,7 +852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -746,7 +860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -754,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -762,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
@@ -770,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -778,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -786,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -794,7 +908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -802,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -810,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -818,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
@@ -826,7 +940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
       <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
@@ -834,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
       <c r="A44" s="3" t="s">
         <v>28</v>
       </c>
@@ -842,7 +956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -850,7 +964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
@@ -858,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -866,7 +980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -874,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -882,7 +996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
       <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
@@ -890,7 +1004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
@@ -898,7 +1012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -906,7 +1020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
@@ -914,7 +1028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
@@ -922,7 +1036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
@@ -930,7 +1044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
       <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
@@ -938,90 +1052,71 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
       <c r="A57" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
+      <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
       <c r="A62" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
       <c r="A63" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ikea-link.xlsx
+++ b/Ikea-link.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ikea crawler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8F658-A2AE-4F01-98F1-FD39F1C6C6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -268,8 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,28 +330,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,10 +365,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -398,71 +406,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,7 +498,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -513,11 +521,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -526,13 +534,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -542,7 +550,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -551,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -560,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -568,10 +576,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -636,21 +644,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="54.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="61.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="54.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -706,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -714,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -722,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -730,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -738,7 +748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -746,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -754,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -762,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -778,7 +788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -786,7 +796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -794,7 +804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -802,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -810,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -818,7 +828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -826,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -834,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -842,7 +852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -850,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -858,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -866,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -874,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -882,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -890,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -898,7 +908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -906,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -914,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -922,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -930,7 +940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -938,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -946,7 +956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -954,7 +964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -962,7 +972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -970,7 +980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -978,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -986,7 +996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -994,7 +1004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1050,7 +1060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -1178,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
